--- a/wyniki/results.xlsx
+++ b/wyniki/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="15">
   <si>
     <t>liczba_cech</t>
   </si>
@@ -80,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -100,11 +100,89 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -118,6 +196,84 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,43 +302,43 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="85" t="s">
         <v>12</v>
       </c>
     </row>
@@ -191,10 +347,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>31.890756302521005</v>
+        <v>31.302521008403364</v>
       </c>
       <c r="C2">
-        <v>31.890756302521005</v>
+        <v>31.302521008403364</v>
       </c>
       <c r="D2">
         <v>29.621848739495796</v>
@@ -209,10 +365,10 @@
         <v>29.621848739495796</v>
       </c>
       <c r="H2">
-        <v>30.798319327731093</v>
+        <v>31.84873949579832</v>
       </c>
       <c r="I2">
-        <v>30.798319327731093</v>
+        <v>31.84873949579832</v>
       </c>
       <c r="J2">
         <v>29.621848739495796</v>
@@ -232,40 +388,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>42.310924369747895</v>
+        <v>42.142857142857139</v>
       </c>
       <c r="C3">
-        <v>38.15126050420168</v>
+        <v>39.075630252100837</v>
       </c>
       <c r="D3">
-        <v>43.655462184873947</v>
+        <v>42.773109243697476</v>
       </c>
       <c r="E3">
-        <v>43.655462184873947</v>
+        <v>42.773109243697476</v>
       </c>
       <c r="F3">
-        <v>51.386554621848745</v>
+        <v>51.17647058823529</v>
       </c>
       <c r="G3">
-        <v>51.386554621848745</v>
+        <v>51.17647058823529</v>
       </c>
       <c r="H3">
-        <v>42.941176470588246</v>
+        <v>43.487394957983199</v>
       </c>
       <c r="I3">
-        <v>40.546218487394967</v>
+        <v>41.386554621848745</v>
       </c>
       <c r="J3">
-        <v>43.655462184873947</v>
+        <v>42.773109243697476</v>
       </c>
       <c r="K3">
-        <v>43.655462184873947</v>
+        <v>42.773109243697476</v>
       </c>
       <c r="L3">
-        <v>51.386554621848745</v>
+        <v>51.17647058823529</v>
       </c>
       <c r="M3">
-        <v>51.386554621848745</v>
+        <v>51.17647058823529</v>
       </c>
     </row>
     <row r="4">
@@ -273,40 +429,40 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>57.563025210084028</v>
+        <v>57.436974789915965</v>
       </c>
       <c r="C4">
-        <v>58.151260504201687</v>
+        <v>58.823529411764696</v>
       </c>
       <c r="D4">
-        <v>54.579831932773104</v>
+        <v>54.873949579831937</v>
       </c>
       <c r="E4">
-        <v>54.579831932773104</v>
+        <v>54.873949579831937</v>
       </c>
       <c r="F4">
-        <v>64.243697478991606</v>
+        <v>62.857142857142854</v>
       </c>
       <c r="G4">
-        <v>64.243697478991606</v>
+        <v>62.857142857142854</v>
       </c>
       <c r="H4">
-        <v>59.159663865546214</v>
+        <v>59.2016806722689</v>
       </c>
       <c r="I4">
-        <v>57.899159663865547</v>
+        <v>57.983193277310917</v>
       </c>
       <c r="J4">
-        <v>54.537815126050418</v>
+        <v>54.621848739495796</v>
       </c>
       <c r="K4">
-        <v>54.537815126050418</v>
+        <v>54.621848739495796</v>
       </c>
       <c r="L4">
-        <v>64.033613445378151</v>
+        <v>62.394957983193272</v>
       </c>
       <c r="M4">
-        <v>64.159663865546207</v>
+        <v>62.394957983193272</v>
       </c>
     </row>
     <row r="5">
@@ -314,40 +470,40 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35.210084033613441</v>
+        <v>36.638655462184872</v>
       </c>
       <c r="C5">
-        <v>40.252100840336126</v>
+        <v>43.571428571428569</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>67.563025210084021</v>
       </c>
       <c r="E5">
-        <v>70.084033613445371</v>
+        <v>67.689075630252091</v>
       </c>
       <c r="F5">
+        <v>67.941176470588246</v>
+      </c>
+      <c r="G5">
+        <v>68.403361344537814</v>
+      </c>
+      <c r="H5">
+        <v>55.756302521008401</v>
+      </c>
+      <c r="I5">
+        <v>54.495798319327733</v>
+      </c>
+      <c r="J5">
+        <v>66.890756302521012</v>
+      </c>
+      <c r="K5">
         <v>67.142857142857139</v>
       </c>
-      <c r="G5">
-        <v>67.815126050420162</v>
-      </c>
-      <c r="H5">
-        <v>56.428571428571431</v>
-      </c>
-      <c r="I5">
-        <v>54.075630252100837</v>
-      </c>
-      <c r="J5">
-        <v>67.815126050420162</v>
-      </c>
-      <c r="K5">
-        <v>68.403361344537799</v>
-      </c>
       <c r="L5">
-        <v>66.344537815126031</v>
+        <v>66.764705882352956</v>
       </c>
       <c r="M5">
-        <v>69.033613445378151</v>
+        <v>67.899159663865547</v>
       </c>
     </row>
     <row r="6">
@@ -355,40 +511,40 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>36.932773109243705</v>
+        <v>37.184873949579831</v>
       </c>
       <c r="C6">
-        <v>45.420168067226889</v>
+        <v>47.394957983193279</v>
       </c>
       <c r="D6">
-        <v>76.134453781512619</v>
+        <v>76.092436974789919</v>
       </c>
       <c r="E6">
-        <v>76.260504201680675</v>
+        <v>76.21848739495799</v>
       </c>
       <c r="F6">
-        <v>74.537815126050404</v>
+        <v>72.563025210084035</v>
       </c>
       <c r="G6">
-        <v>75.168067226890756</v>
+        <v>73.487394957983184</v>
       </c>
       <c r="H6">
-        <v>56.932773109243705</v>
+        <v>57.352941176470594</v>
       </c>
       <c r="I6">
-        <v>53.025210084033617</v>
+        <v>53.361344537815128</v>
       </c>
       <c r="J6">
-        <v>73.823529411764696</v>
+        <v>73.235294117647058</v>
       </c>
       <c r="K6">
-        <v>75.546218487394967</v>
+        <v>74.537815126050432</v>
       </c>
       <c r="L6">
-        <v>72.100840336134453</v>
+        <v>72.226890756302524</v>
       </c>
       <c r="M6">
-        <v>75.420168067226882</v>
+        <v>74.621848739495803</v>
       </c>
     </row>
     <row r="7">
@@ -396,40 +552,40 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>31.302521008403364</v>
+        <v>32.731092436974798</v>
       </c>
       <c r="C7">
-        <v>43.487394957983184</v>
+        <v>44.579831932773111</v>
       </c>
       <c r="D7">
-        <v>71.34453781512606</v>
+        <v>69.159663865546221</v>
       </c>
       <c r="E7">
-        <v>76.34453781512606</v>
+        <v>74.915966386554629</v>
       </c>
       <c r="F7">
-        <v>67.016806722689068</v>
+        <v>65.336134453781511</v>
       </c>
       <c r="G7">
-        <v>74.747899159663874</v>
+        <v>74.159663865546221</v>
       </c>
       <c r="H7">
-        <v>59.663865546218481</v>
+        <v>59.621848739495803</v>
       </c>
       <c r="I7">
-        <v>55.714285714285708</v>
+        <v>55.924369747899149</v>
       </c>
       <c r="J7">
-        <v>72.64705882352942</v>
+        <v>74.579831932773104</v>
       </c>
       <c r="K7">
-        <v>75.924369747899163</v>
+        <v>76.512605042016801</v>
       </c>
       <c r="L7">
-        <v>74.075630252100837</v>
+        <v>73.403361344537814</v>
       </c>
       <c r="M7">
-        <v>78.193277310924373</v>
+        <v>77.941176470588218</v>
       </c>
     </row>
     <row r="8">
@@ -437,40 +593,40 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>39.411764705882348</v>
+        <v>40.798319327731093</v>
       </c>
       <c r="C8">
-        <v>53.529411764705877</v>
+        <v>53.193277310924373</v>
       </c>
       <c r="D8">
-        <v>71.176470588235304</v>
+        <v>72.478991596638664</v>
       </c>
       <c r="E8">
-        <v>78.151260504201673</v>
+        <v>79.201680672268907</v>
       </c>
       <c r="F8">
-        <v>69.873949579831944</v>
+        <v>69.201680672268907</v>
       </c>
       <c r="G8">
-        <v>78.949579831932766</v>
+        <v>78.529411764705884</v>
       </c>
       <c r="H8">
-        <v>67.142857142857153</v>
+        <v>67.35294117647058</v>
       </c>
       <c r="I8">
-        <v>65</v>
+        <v>66.008403361344534</v>
       </c>
       <c r="J8">
-        <v>74.831932773109244</v>
+        <v>77.268907563025223</v>
       </c>
       <c r="K8">
-        <v>79.663865546218489</v>
+        <v>80.840336134453793</v>
       </c>
       <c r="L8">
-        <v>76.470588235294116</v>
+        <v>78.319327731092443</v>
       </c>
       <c r="M8">
-        <v>81.260504201680675</v>
+        <v>82.731092436974805</v>
       </c>
     </row>
     <row r="9">
@@ -478,40 +634,40 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>38.15126050420168</v>
+        <v>38.907563025210081</v>
       </c>
       <c r="C9">
-        <v>51.428571428571423</v>
+        <v>52.268907563025209</v>
       </c>
       <c r="D9">
-        <v>62.605042016806713</v>
+        <v>63.403361344537814</v>
       </c>
       <c r="E9">
-        <v>73.445378151260499</v>
+        <v>74.159663865546221</v>
       </c>
       <c r="F9">
-        <v>61.092436974789919</v>
+        <v>60.336134453781519</v>
       </c>
       <c r="G9">
-        <v>74.831932773109244</v>
+        <v>75.882352941176478</v>
       </c>
       <c r="H9">
-        <v>68.571428571428584</v>
+        <v>68.403361344537814</v>
       </c>
       <c r="I9">
-        <v>64.579831932773104</v>
+        <v>64.9579831932773</v>
       </c>
       <c r="J9">
-        <v>74.789915966386559</v>
+        <v>73.193277310924373</v>
       </c>
       <c r="K9">
-        <v>79.747899159663859</v>
+        <v>78.319327731092443</v>
       </c>
       <c r="L9">
-        <v>76.596638655462172</v>
+        <v>75.210084033613441</v>
       </c>
       <c r="M9">
-        <v>81.680672268907571</v>
+        <v>82.268907563025223</v>
       </c>
     </row>
     <row r="10">
@@ -519,40 +675,40 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>37.016806722689076</v>
+        <v>39.033613445378151</v>
       </c>
       <c r="C10">
-        <v>56.092436974789919</v>
+        <v>57.731092436974791</v>
       </c>
       <c r="D10">
-        <v>64.663865546218474</v>
+        <v>66.260504201680675</v>
       </c>
       <c r="E10">
-        <v>75.588235294117638</v>
+        <v>75.378151260504197</v>
       </c>
       <c r="F10">
-        <v>62.647058823529413</v>
+        <v>64.495798319327733</v>
       </c>
       <c r="G10">
-        <v>77.773109243697476</v>
+        <v>78.151260504201687</v>
       </c>
       <c r="H10">
-        <v>72.058823529411754</v>
+        <v>72.35294117647058</v>
       </c>
       <c r="I10">
-        <v>70.630252100840352</v>
+        <v>71.428571428571416</v>
       </c>
       <c r="J10">
-        <v>74.327731092436991</v>
+        <v>74.747899159663859</v>
       </c>
       <c r="K10">
-        <v>79.957983193277315</v>
+        <v>80.12605042016807</v>
       </c>
       <c r="L10">
-        <v>77.100840336134439</v>
+        <v>77.310924369747895</v>
       </c>
       <c r="M10">
-        <v>82.899159663865532</v>
+        <v>83.361344537815114</v>
       </c>
     </row>
     <row r="11">
@@ -560,40 +716,40 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>41.890756302521012</v>
+        <v>40.378151260504204</v>
       </c>
       <c r="C11">
-        <v>59.705882352941181</v>
+        <v>58.739495798319332</v>
       </c>
       <c r="D11">
-        <v>63.69747899159664</v>
+        <v>64.327731092436963</v>
       </c>
       <c r="E11">
-        <v>76.05042016806722</v>
+        <v>77.394957983193279</v>
       </c>
       <c r="F11">
-        <v>63.319327731092429</v>
+        <v>64.243697478991606</v>
       </c>
       <c r="G11">
-        <v>78.235294117647044</v>
+        <v>80.0420168067227</v>
       </c>
       <c r="H11">
-        <v>74.327731092436977</v>
+        <v>74.117647058823536</v>
       </c>
       <c r="I11">
-        <v>72.058823529411768</v>
+        <v>72.815126050420162</v>
       </c>
       <c r="J11">
-        <v>74.831932773109244</v>
+        <v>75.840336134453779</v>
       </c>
       <c r="K11">
-        <v>81.302521008403374</v>
+        <v>81.17647058823529</v>
       </c>
       <c r="L11">
-        <v>78.235294117647058</v>
+        <v>78.445378151260499</v>
       </c>
       <c r="M11">
-        <v>84.369747899159663</v>
+        <v>85.210084033613441</v>
       </c>
     </row>
     <row r="12">
@@ -601,40 +757,40 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>41.008403361344534</v>
+        <v>38.82352941176471</v>
       </c>
       <c r="C12">
-        <v>58.235294117647058</v>
+        <v>57.352941176470594</v>
       </c>
       <c r="D12">
-        <v>63.151260504201673</v>
+        <v>61.428571428571431</v>
       </c>
       <c r="E12">
-        <v>78.109243697479002</v>
+        <v>76.302521008403374</v>
       </c>
       <c r="F12">
-        <v>61.008403361344541</v>
+        <v>59.831932773109237</v>
       </c>
       <c r="G12">
-        <v>79.957983193277329</v>
+        <v>79.117647058823536</v>
       </c>
       <c r="H12">
-        <v>75.420168067226896</v>
+        <v>73.529411764705898</v>
       </c>
       <c r="I12">
-        <v>73.235294117647044</v>
+        <v>73.067226890756302</v>
       </c>
       <c r="J12">
-        <v>77.47899159663865</v>
+        <v>75.210084033613455</v>
       </c>
       <c r="K12">
-        <v>83.151260504201673</v>
+        <v>81.932773109243698</v>
       </c>
       <c r="L12">
-        <v>81.092436974789919</v>
+        <v>78.067226890756302</v>
       </c>
       <c r="M12">
-        <v>85.924369747899163</v>
+        <v>84.831932773109244</v>
       </c>
     </row>
     <row r="13">
@@ -642,40 +798,40 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>42.773109243697476</v>
+        <v>43.025210084033617</v>
       </c>
       <c r="C13">
-        <v>61.638655462184872</v>
+        <v>63.151260504201673</v>
       </c>
       <c r="D13">
-        <v>65.546218487394952</v>
+        <v>64.831932773109244</v>
       </c>
       <c r="E13">
-        <v>79.537815126050418</v>
+        <v>78.865546218487395</v>
       </c>
       <c r="F13">
-        <v>62.52100840336135</v>
+        <v>63.781512605042018</v>
       </c>
       <c r="G13">
-        <v>81.974789915966397</v>
+        <v>82.268907563025209</v>
       </c>
       <c r="H13">
-        <v>76.554621848739501</v>
+        <v>76.806722689075627</v>
       </c>
       <c r="I13">
-        <v>74.663865546218489</v>
+        <v>75.294117647058826</v>
       </c>
       <c r="J13">
-        <v>77.394957983193279</v>
+        <v>76.512605042016801</v>
       </c>
       <c r="K13">
-        <v>83.025210084033617</v>
+        <v>82.563025210084035</v>
       </c>
       <c r="L13">
-        <v>80.252100840336141</v>
+        <v>80.588235294117652</v>
       </c>
       <c r="M13">
-        <v>86.05042016806722</v>
+        <v>86.428571428571416</v>
       </c>
     </row>
     <row r="14">
@@ -683,40 +839,40 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>43.193277310924373</v>
+        <v>43.15126050420168</v>
       </c>
       <c r="C14">
-        <v>62.605042016806728</v>
+        <v>62.941176470588232</v>
       </c>
       <c r="D14">
-        <v>65.840336134453793</v>
+        <v>64.453781512605048</v>
       </c>
       <c r="E14">
-        <v>79.411764705882348</v>
+        <v>78.865546218487381</v>
       </c>
       <c r="F14">
-        <v>64.201680672268907</v>
+        <v>63.487394957983177</v>
       </c>
       <c r="G14">
-        <v>82.394957983193279</v>
+        <v>82.478991596638664</v>
       </c>
       <c r="H14">
-        <v>76.806722689075627</v>
+        <v>76.512605042016816</v>
       </c>
       <c r="I14">
-        <v>74.915966386554629</v>
+        <v>74.873949579831944</v>
       </c>
       <c r="J14">
-        <v>77.857142857142861</v>
+        <v>78.319327731092443</v>
       </c>
       <c r="K14">
-        <v>84.285714285714292</v>
+        <v>83.361344537815128</v>
       </c>
       <c r="L14">
-        <v>80.378151260504211</v>
+        <v>81.092436974789919</v>
       </c>
       <c r="M14">
-        <v>86.764705882352956</v>
+        <v>86.764705882352928</v>
       </c>
     </row>
     <row r="15">
@@ -724,40 +880,40 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>43.739495798319325</v>
+        <v>43.823529411764703</v>
       </c>
       <c r="C15">
-        <v>65.588235294117638</v>
+        <v>66.176470588235276</v>
       </c>
       <c r="D15">
-        <v>65.378151260504211</v>
+        <v>66.344537815126046</v>
       </c>
       <c r="E15">
-        <v>81.260504201680675</v>
+        <v>81.638655462184886</v>
       </c>
       <c r="F15">
-        <v>63.613445378151269</v>
+        <v>64.537815126050418</v>
       </c>
       <c r="G15">
-        <v>84.117647058823522</v>
+        <v>84.285714285714278</v>
       </c>
       <c r="H15">
-        <v>78.82352941176471</v>
+        <v>78.193277310924373</v>
       </c>
       <c r="I15">
-        <v>77.35294117647058</v>
+        <v>77.731092436974805</v>
       </c>
       <c r="J15">
-        <v>80.336134453781511</v>
+        <v>79.453781512605033</v>
       </c>
       <c r="K15">
-        <v>85.252100840336126</v>
+        <v>84.537815126050432</v>
       </c>
       <c r="L15">
-        <v>83.445378151260513</v>
+        <v>83.025210084033631</v>
       </c>
       <c r="M15">
-        <v>89.285714285714306</v>
+        <v>89.495798319327733</v>
       </c>
     </row>
     <row r="16">
@@ -765,40 +921,40 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>45.840336134453786</v>
+        <v>45.294117647058819</v>
       </c>
       <c r="C16">
-        <v>67.058823529411768</v>
+        <v>66.218487394957975</v>
       </c>
       <c r="D16">
-        <v>67.731092436974791</v>
+        <v>66.848739495798299</v>
       </c>
       <c r="E16">
-        <v>80.966386554621849</v>
+        <v>80.924369747899163</v>
       </c>
       <c r="F16">
-        <v>64.243697478991592</v>
+        <v>64.033613445378165</v>
       </c>
       <c r="G16">
-        <v>84.537815126050432</v>
+        <v>84.495798319327733</v>
       </c>
       <c r="H16">
-        <v>80.294117647058812</v>
+        <v>79.201680672268893</v>
       </c>
       <c r="I16">
-        <v>78.445378151260513</v>
+        <v>77.436974789915979</v>
       </c>
       <c r="J16">
-        <v>80.336134453781511</v>
+        <v>79.495798319327733</v>
       </c>
       <c r="K16">
-        <v>85.294117647058826</v>
+        <v>85.336134453781511</v>
       </c>
       <c r="L16">
-        <v>84.075630252100822</v>
+        <v>82.731092436974791</v>
       </c>
       <c r="M16">
-        <v>89.033613445378165</v>
+        <v>89.369747899159663</v>
       </c>
     </row>
     <row r="17">
@@ -806,40 +962,40 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>47.773109243697476</v>
+        <v>47.352941176470594</v>
       </c>
       <c r="C17">
-        <v>69.747899159663859</v>
+        <v>68.319327731092443</v>
       </c>
       <c r="D17">
-        <v>69.369747899159663</v>
+        <v>68.109243697478988</v>
       </c>
       <c r="E17">
-        <v>84.201680672268907</v>
+        <v>82.731092436974791</v>
       </c>
       <c r="F17">
-        <v>66.218487394957975</v>
+        <v>66.638655462184857</v>
       </c>
       <c r="G17">
-        <v>86.21848739495799</v>
+        <v>86.218487394957975</v>
       </c>
       <c r="H17">
-        <v>82.815126050420162</v>
+        <v>82.605042016806721</v>
       </c>
       <c r="I17">
-        <v>80.882352941176464</v>
+        <v>81.386554621848745</v>
       </c>
       <c r="J17">
-        <v>81.512605042016801</v>
+        <v>82.268907563025223</v>
       </c>
       <c r="K17">
-        <v>85.882352941176464</v>
+        <v>86.134453781512605</v>
       </c>
       <c r="L17">
-        <v>85.336134453781511</v>
+        <v>84.537815126050418</v>
       </c>
       <c r="M17">
-        <v>89.117647058823536</v>
+        <v>89.83193277310923</v>
       </c>
     </row>
     <row r="18">
@@ -847,40 +1003,40 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>49.159663865546221</v>
+        <v>47.563025210084028</v>
       </c>
       <c r="C18">
-        <v>69.537815126050418</v>
+        <v>69.537815126050432</v>
       </c>
       <c r="D18">
-        <v>68.277310924369743</v>
+        <v>69.369747899159663</v>
       </c>
       <c r="E18">
-        <v>82.268907563025209</v>
+        <v>82.731092436974805</v>
       </c>
       <c r="F18">
-        <v>66.092436974789919</v>
+        <v>65.084033613445385</v>
       </c>
       <c r="G18">
-        <v>86.260504201680675</v>
+        <v>85.630252100840337</v>
       </c>
       <c r="H18">
-        <v>83.86554621848741</v>
+        <v>82.983193277310917</v>
       </c>
       <c r="I18">
-        <v>81.21848739495799</v>
+        <v>81.008403361344534</v>
       </c>
       <c r="J18">
-        <v>80.588235294117652</v>
+        <v>81.764705882352942</v>
       </c>
       <c r="K18">
-        <v>86.30252100840336</v>
+        <v>86.428571428571431</v>
       </c>
       <c r="L18">
-        <v>83.949579831932766</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="M18">
-        <v>89.201680672268907</v>
+        <v>90.12605042016807</v>
       </c>
     </row>
     <row r="19">
@@ -888,40 +1044,40 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>49.369747899159663</v>
+        <v>47.647058823529413</v>
       </c>
       <c r="C19">
-        <v>70.588235294117652</v>
+        <v>69.411764705882348</v>
       </c>
       <c r="D19">
-        <v>68.571428571428569</v>
+        <v>66.008403361344534</v>
       </c>
       <c r="E19">
-        <v>83.865546218487381</v>
+        <v>82.605042016806721</v>
       </c>
       <c r="F19">
-        <v>66.34453781512606</v>
+        <v>64.83193277310923</v>
       </c>
       <c r="G19">
+        <v>86.470588235294116</v>
+      </c>
+      <c r="H19">
+        <v>84.453781512605033</v>
+      </c>
+      <c r="I19">
+        <v>82.184873949579838</v>
+      </c>
+      <c r="J19">
+        <v>81.21848739495799</v>
+      </c>
+      <c r="K19">
         <v>86.386554621848731</v>
       </c>
-      <c r="H19">
-        <v>84.411764705882348</v>
-      </c>
-      <c r="I19">
-        <v>81.596638655462186</v>
-      </c>
-      <c r="J19">
-        <v>80.630252100840337</v>
-      </c>
-      <c r="K19">
-        <v>86.596638655462186</v>
-      </c>
       <c r="L19">
-        <v>84.327731092436963</v>
+        <v>85.756302521008394</v>
       </c>
       <c r="M19">
-        <v>90.252100840336155</v>
+        <v>90.168067226890756</v>
       </c>
     </row>
     <row r="20">
@@ -929,40 +1085,40 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>47.983193277310917</v>
+        <v>49.285714285714285</v>
       </c>
       <c r="C20">
-        <v>70.420168067226882</v>
+        <v>70.16806722689077</v>
       </c>
       <c r="D20">
-        <v>68.403361344537828</v>
+        <v>68.025210084033617</v>
       </c>
       <c r="E20">
-        <v>83.571428571428569</v>
+        <v>84.411764705882348</v>
       </c>
       <c r="F20">
-        <v>64.537815126050418</v>
+        <v>64.075630252100837</v>
       </c>
       <c r="G20">
-        <v>86.764705882352956</v>
+        <v>86.680672268907571</v>
       </c>
       <c r="H20">
-        <v>84.579831932773104</v>
+        <v>86.134453781512619</v>
       </c>
       <c r="I20">
-        <v>82.64705882352942</v>
+        <v>83.235294117647058</v>
       </c>
       <c r="J20">
-        <v>80.714285714285708</v>
+        <v>81.21848739495799</v>
       </c>
       <c r="K20">
-        <v>86.596638655462172</v>
+        <v>86.554621848739501</v>
       </c>
       <c r="L20">
-        <v>84.663865546218489</v>
+        <v>85.798319327731093</v>
       </c>
       <c r="M20">
-        <v>90.042016806722671</v>
+        <v>90.88235294117645</v>
       </c>
     </row>
     <row r="21">
@@ -970,40 +1126,40 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>47.647058823529413</v>
+        <v>48.991596638655466</v>
       </c>
       <c r="C21">
-        <v>71.848739495798313</v>
+        <v>72.563025210084035</v>
       </c>
       <c r="D21">
-        <v>68.067226890756302</v>
+        <v>68.361344537815128</v>
       </c>
       <c r="E21">
-        <v>84.915966386554615</v>
+        <v>85.294117647058826</v>
       </c>
       <c r="F21">
-        <v>66.806722689075642</v>
+        <v>65.420168067226882</v>
       </c>
       <c r="G21">
-        <v>87.563025210084021</v>
+        <v>87.731092436974819</v>
       </c>
       <c r="H21">
-        <v>86.848739495798327</v>
+        <v>86.806722689075627</v>
       </c>
       <c r="I21">
-        <v>85.084033613445371</v>
+        <v>84.663865546218489</v>
       </c>
       <c r="J21">
-        <v>83.319327731092443</v>
+        <v>82.689075630252091</v>
       </c>
       <c r="K21">
-        <v>87.100840336134453</v>
+        <v>88.193277310924373</v>
       </c>
       <c r="L21">
-        <v>86.21848739495799</v>
+        <v>85.420168067226882</v>
       </c>
       <c r="M21">
-        <v>91.428571428571431</v>
+        <v>91.218487394957975</v>
       </c>
     </row>
     <row r="22">
@@ -1011,40 +1167,40 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>52.605042016806728</v>
+        <v>51.890756302521012</v>
       </c>
       <c r="C22">
-        <v>73.613445378151269</v>
+        <v>73.361344537815143</v>
       </c>
       <c r="D22">
-        <v>68.067226890756302</v>
+        <v>67.815126050420162</v>
       </c>
       <c r="E22">
-        <v>84.83193277310923</v>
+        <v>83.949579831932766</v>
       </c>
       <c r="F22">
-        <v>66.344537815126046</v>
+        <v>66.974789915966397</v>
       </c>
       <c r="G22">
-        <v>87.689075630252105</v>
+        <v>87.058823529411754</v>
       </c>
       <c r="H22">
-        <v>87.394957983193279</v>
+        <v>86.932773109243698</v>
       </c>
       <c r="I22">
-        <v>85.336134453781511</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="J22">
-        <v>81.512605042016816</v>
+        <v>81.512605042016801</v>
       </c>
       <c r="K22">
-        <v>86.848739495798299</v>
+        <v>85.630252100840337</v>
       </c>
       <c r="L22">
-        <v>86.092436974789919</v>
+        <v>85.504201680672267</v>
       </c>
       <c r="M22">
-        <v>91.512605042016816</v>
+        <v>89.705882352941174</v>
       </c>
     </row>
     <row r="23">
@@ -1052,40 +1208,40 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>51.302521008403367</v>
+        <v>52.647058823529413</v>
       </c>
       <c r="C23">
-        <v>72.35294117647058</v>
+        <v>73.949579831932766</v>
       </c>
       <c r="D23">
-        <v>67.142857142857139</v>
+        <v>66.806722689075613</v>
       </c>
       <c r="E23">
-        <v>84.033613445378151</v>
+        <v>82.268907563025209</v>
       </c>
       <c r="F23">
-        <v>65.042016806722685</v>
+        <v>67.142857142857153</v>
       </c>
       <c r="G23">
-        <v>87.016806722689068</v>
+        <v>86.512605042016816</v>
       </c>
       <c r="H23">
-        <v>86.386554621848745</v>
+        <v>87.521008403361364</v>
       </c>
       <c r="I23">
-        <v>84.831932773109244</v>
+        <v>85.000000000000014</v>
       </c>
       <c r="J23">
-        <v>81.302521008403374</v>
+        <v>79.663865546218489</v>
       </c>
       <c r="K23">
-        <v>86.890756302520998</v>
+        <v>86.764705882352942</v>
       </c>
       <c r="L23">
-        <v>86.680672268907571</v>
+        <v>84.915966386554629</v>
       </c>
       <c r="M23">
-        <v>90.756302521008394</v>
+        <v>90.336134453781497</v>
       </c>
     </row>
     <row r="24">
@@ -1093,40 +1249,40 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>51.806722689075642</v>
+        <v>50.756302521008401</v>
       </c>
       <c r="C24">
-        <v>73.613445378151255</v>
+        <v>73.991596638655452</v>
       </c>
       <c r="D24">
-        <v>65.966386554621849</v>
+        <v>67.310924369747895</v>
       </c>
       <c r="E24">
-        <v>83.529411764705884</v>
+        <v>82.058823529411754</v>
       </c>
       <c r="F24">
-        <v>65.588235294117652</v>
+        <v>67.605042016806721</v>
       </c>
       <c r="G24">
-        <v>86.428571428571416</v>
+        <v>87.689075630252105</v>
       </c>
       <c r="H24">
-        <v>87.815126050420162</v>
+        <v>87.352941176470594</v>
       </c>
       <c r="I24">
-        <v>85.210084033613427</v>
+        <v>84.621848739495789</v>
       </c>
       <c r="J24">
-        <v>81.176470588235276</v>
+        <v>80.462184873949582</v>
       </c>
       <c r="K24">
-        <v>86.974789915966383</v>
+        <v>86.176470588235304</v>
       </c>
       <c r="L24">
-        <v>85.252100840336126</v>
+        <v>85.504201680672267</v>
       </c>
       <c r="M24">
-        <v>89.621848739495789</v>
+        <v>89.87394957983193</v>
       </c>
     </row>
     <row r="25">
@@ -1134,40 +1290,40 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>51.344537815126046</v>
+        <v>51.008403361344548</v>
       </c>
       <c r="C25">
-        <v>73.991596638655466</v>
+        <v>73.445378151260513</v>
       </c>
       <c r="D25">
-        <v>66.848739495798327</v>
+        <v>67.016806722689083</v>
       </c>
       <c r="E25">
-        <v>83.487394957983184</v>
+        <v>83.949579831932766</v>
       </c>
       <c r="F25">
-        <v>65.756302521008408</v>
+        <v>67.35294117647058</v>
       </c>
       <c r="G25">
-        <v>88.025210084033603</v>
+        <v>87.394957983193279</v>
       </c>
       <c r="H25">
-        <v>88.067226890756302</v>
+        <v>87.773109243697476</v>
       </c>
       <c r="I25">
-        <v>85.210084033613441</v>
+        <v>84.453781512605048</v>
       </c>
       <c r="J25">
-        <v>81.932773109243698</v>
+        <v>82.983193277310932</v>
       </c>
       <c r="K25">
-        <v>87.478991596638679</v>
+        <v>88.361344537815128</v>
       </c>
       <c r="L25">
-        <v>85.630252100840323</v>
+        <v>86.344537815126046</v>
       </c>
       <c r="M25">
-        <v>90.168067226890756</v>
+        <v>90.840336134453793</v>
       </c>
     </row>
     <row r="26">
@@ -1175,40 +1331,40 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>50.840336134453779</v>
+        <v>49.87394957983193</v>
       </c>
       <c r="C26">
-        <v>74.285714285714292</v>
+        <v>73.151260504201673</v>
       </c>
       <c r="D26">
-        <v>66.722689075630257</v>
+        <v>67.815126050420176</v>
       </c>
       <c r="E26">
-        <v>82.64705882352942</v>
+        <v>84.369747899159663</v>
       </c>
       <c r="F26">
-        <v>67.436974789915979</v>
+        <v>67.815126050420162</v>
       </c>
       <c r="G26">
-        <v>86.638655462184886</v>
+        <v>87.899159663865547</v>
       </c>
       <c r="H26">
-        <v>89.033613445378165</v>
+        <v>88.907563025210081</v>
       </c>
       <c r="I26">
-        <v>84.789915966386545</v>
+        <v>85.504201680672253</v>
       </c>
       <c r="J26">
-        <v>81.30252100840336</v>
+        <v>82.268907563025195</v>
       </c>
       <c r="K26">
-        <v>87.100840336134439</v>
+        <v>86.974789915966369</v>
       </c>
       <c r="L26">
-        <v>86.050420168067234</v>
+        <v>86.134453781512605</v>
       </c>
       <c r="M26">
-        <v>89.705882352941188</v>
+        <v>90.252100840336126</v>
       </c>
     </row>
     <row r="27">
@@ -1216,40 +1372,40 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>52.310924369747895</v>
+        <v>50.924369747899163</v>
       </c>
       <c r="C27">
-        <v>74.159663865546207</v>
+        <v>74.201680672268907</v>
       </c>
       <c r="D27">
-        <v>68.235294117647058</v>
+        <v>65.756302521008408</v>
       </c>
       <c r="E27">
-        <v>84.201680672268921</v>
+        <v>83.571428571428584</v>
       </c>
       <c r="F27">
-        <v>66.134453781512605</v>
+        <v>65.924369747899163</v>
       </c>
       <c r="G27">
-        <v>87.310924369747895</v>
+        <v>87.394957983193265</v>
       </c>
       <c r="H27">
-        <v>88.529411764705884</v>
+        <v>88.613445378151269</v>
       </c>
       <c r="I27">
-        <v>84.327731092436963</v>
+        <v>84.579831932773089</v>
       </c>
       <c r="J27">
-        <v>81.344537815126074</v>
+        <v>81.344537815126046</v>
       </c>
       <c r="K27">
-        <v>86.638655462184872</v>
+        <v>86.722689075630257</v>
       </c>
       <c r="L27">
-        <v>85.798319327731093</v>
+        <v>85.042016806722685</v>
       </c>
       <c r="M27">
-        <v>90.504201680672267</v>
+        <v>90.588235294117638</v>
       </c>
     </row>
     <row r="28">
@@ -1257,40 +1413,40 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>51.97478991596639</v>
+        <v>54.117647058823522</v>
       </c>
       <c r="C28">
-        <v>75.084033613445371</v>
+        <v>75.042016806722685</v>
       </c>
       <c r="D28">
-        <v>67.184873949579838</v>
+        <v>68.739495798319339</v>
       </c>
       <c r="E28">
-        <v>84.033613445378165</v>
+        <v>84.705882352941188</v>
       </c>
       <c r="F28">
-        <v>66.890756302520998</v>
+        <v>68.151260504201687</v>
       </c>
       <c r="G28">
-        <v>88.445378151260499</v>
+        <v>88.613445378151255</v>
       </c>
       <c r="H28">
-        <v>88.613445378151269</v>
+        <v>89.327731092436991</v>
       </c>
       <c r="I28">
-        <v>84.327731092436977</v>
+        <v>85.084033613445371</v>
       </c>
       <c r="J28">
-        <v>82.310924369747895</v>
+        <v>81.764705882352956</v>
       </c>
       <c r="K28">
-        <v>86.974789915966397</v>
+        <v>87.142857142857139</v>
       </c>
       <c r="L28">
-        <v>86.890756302521012</v>
+        <v>86.218487394957975</v>
       </c>
       <c r="M28">
-        <v>91.218487394957975</v>
+        <v>91.764705882352956</v>
       </c>
     </row>
     <row r="29">
@@ -1298,40 +1454,40 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>52.899159663865554</v>
+        <v>50.504201680672267</v>
       </c>
       <c r="C29">
-        <v>75.210084033613427</v>
+        <v>74.495798319327747</v>
       </c>
       <c r="D29">
-        <v>67.100840336134439</v>
+        <v>66.680672268907557</v>
       </c>
       <c r="E29">
-        <v>82.899159663865561</v>
+        <v>83.025210084033617</v>
       </c>
       <c r="F29">
-        <v>67.899159663865561</v>
+        <v>65.210084033613427</v>
       </c>
       <c r="G29">
-        <v>85.966386554621849</v>
+        <v>87.310924369747909</v>
       </c>
       <c r="H29">
-        <v>88.739495798319325</v>
+        <v>88.193277310924373</v>
       </c>
       <c r="I29">
-        <v>84.537815126050432</v>
+        <v>83.94957983193278</v>
       </c>
       <c r="J29">
-        <v>82.35294117647058</v>
+        <v>81.806722689075627</v>
       </c>
       <c r="K29">
-        <v>86.386554621848759</v>
+        <v>87.100840336134453</v>
       </c>
       <c r="L29">
-        <v>85.000000000000014</v>
+        <v>86.17647058823529</v>
       </c>
       <c r="M29">
-        <v>89.117647058823536</v>
+        <v>90.336134453781511</v>
       </c>
     </row>
     <row r="30">
@@ -1339,40 +1495,40 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>50.294117647058826</v>
+        <v>54.579831932773104</v>
       </c>
       <c r="C30">
-        <v>75.12605042016807</v>
+        <v>75.294117647058826</v>
       </c>
       <c r="D30">
-        <v>68.907563025210067</v>
+        <v>67.64705882352942</v>
       </c>
       <c r="E30">
-        <v>84.369747899159648</v>
+        <v>82.983193277310917</v>
       </c>
       <c r="F30">
-        <v>66.806722689075627</v>
+        <v>66.092436974789933</v>
       </c>
       <c r="G30">
-        <v>87.563025210084035</v>
+        <v>86.428571428571431</v>
       </c>
       <c r="H30">
-        <v>88.86554621848741</v>
+        <v>89.705882352941188</v>
       </c>
       <c r="I30">
-        <v>84.453781512605048</v>
+        <v>84.159663865546221</v>
       </c>
       <c r="J30">
-        <v>82.016806722689068</v>
+        <v>82.394957983193279</v>
       </c>
       <c r="K30">
-        <v>87.268907563025195</v>
+        <v>86.890756302521012</v>
       </c>
       <c r="L30">
-        <v>86.890756302521012</v>
+        <v>86.30252100840336</v>
       </c>
       <c r="M30">
-        <v>91.092436974789905</v>
+        <v>90.420168067226882</v>
       </c>
     </row>
     <row r="31">
@@ -1380,40 +1536,40 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>54.075630252100851</v>
+        <v>53.991596638655459</v>
       </c>
       <c r="C31">
-        <v>75</v>
+        <v>75.630252100840337</v>
       </c>
       <c r="D31">
-        <v>69.117647058823536</v>
+        <v>68.445378151260499</v>
       </c>
       <c r="E31">
-        <v>84.411764705882348</v>
+        <v>83.067226890756302</v>
       </c>
       <c r="F31">
-        <v>68.529411764705884</v>
+        <v>67.815126050420162</v>
       </c>
       <c r="G31">
-        <v>88.78151260504201</v>
+        <v>87.521008403361321</v>
       </c>
       <c r="H31">
-        <v>89.915966386554601</v>
+        <v>89.83193277310923</v>
       </c>
       <c r="I31">
-        <v>84.201680672268907</v>
+        <v>84.579831932773104</v>
       </c>
       <c r="J31">
-        <v>82.268907563025209</v>
+        <v>81.680672268907571</v>
       </c>
       <c r="K31">
-        <v>86.890756302521012</v>
+        <v>85.882352941176478</v>
       </c>
       <c r="L31">
-        <v>86.470588235294116</v>
+        <v>86.092436974789919</v>
       </c>
       <c r="M31">
-        <v>91.05042016806722</v>
+        <v>90.546218487394952</v>
       </c>
     </row>
     <row r="32">
@@ -1421,40 +1577,40 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>53.02521008403361</v>
+        <v>54.075630252100837</v>
       </c>
       <c r="C32">
-        <v>75.840336134453793</v>
+        <v>74.243697478991606</v>
       </c>
       <c r="D32">
-        <v>67.731092436974777</v>
+        <v>67.605042016806721</v>
       </c>
       <c r="E32">
-        <v>83.193277310924373</v>
+        <v>82.941176470588246</v>
       </c>
       <c r="F32">
-        <v>67.563025210084021</v>
+        <v>67.857142857142861</v>
       </c>
       <c r="G32">
-        <v>87.815126050420162</v>
+        <v>87.521008403361336</v>
       </c>
       <c r="H32">
-        <v>89.285714285714306</v>
+        <v>89.285714285714292</v>
       </c>
       <c r="I32">
-        <v>83.78151260504201</v>
+        <v>84.327731092436963</v>
       </c>
       <c r="J32">
-        <v>79.999999999999986</v>
+        <v>80.546218487394952</v>
       </c>
       <c r="K32">
-        <v>85.420168067226882</v>
+        <v>85.798319327731093</v>
       </c>
       <c r="L32">
-        <v>84.537815126050432</v>
+        <v>86.512605042016816</v>
       </c>
       <c r="M32">
-        <v>88.655462184873969</v>
+        <v>90.126050420168056</v>
       </c>
     </row>
   </sheetData>
@@ -1469,56 +1625,56 @@
     <col min="1" max="1" width="11.140625" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
     <col min="12" max="12" width="12.5703125" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="87" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1527,40 +1683,40 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.8038823372486208</v>
+        <v>11.190750810127977</v>
       </c>
       <c r="C2">
-        <v>4.8038823372486208</v>
+        <v>11.190750810127977</v>
       </c>
       <c r="D2">
-        <v>4.1291026214407278</v>
+        <v>5.7768205321344235</v>
       </c>
       <c r="E2">
-        <v>4.1291026214407278</v>
+        <v>5.7768205321344235</v>
       </c>
       <c r="F2">
-        <v>4.1291026214407278</v>
+        <v>5.7768205321344235</v>
       </c>
       <c r="G2">
-        <v>4.1291026214407278</v>
+        <v>5.7768205321344235</v>
       </c>
       <c r="H2">
-        <v>31.073213599165165</v>
+        <v>10.859245659047938</v>
       </c>
       <c r="I2">
-        <v>31.073213599165165</v>
+        <v>10.859245659047938</v>
       </c>
       <c r="J2">
-        <v>4.1291026214407278</v>
+        <v>5.7768205321344235</v>
       </c>
       <c r="K2">
-        <v>4.1291026214407278</v>
+        <v>5.7768205321344235</v>
       </c>
       <c r="L2">
-        <v>4.1291026214407278</v>
+        <v>5.7768205321344235</v>
       </c>
       <c r="M2">
-        <v>4.1291026214407278</v>
+        <v>5.7768205321344235</v>
       </c>
     </row>
     <row r="3">
@@ -1568,40 +1724,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18.205321344223947</v>
+        <v>16.243752402921963</v>
       </c>
       <c r="C3">
-        <v>22.864047579816248</v>
+        <v>24.441149008623057</v>
       </c>
       <c r="D3">
-        <v>20.143351458230342</v>
+        <v>18.862446939560122</v>
       </c>
       <c r="E3">
-        <v>20.143351458230342</v>
+        <v>18.862446939560122</v>
       </c>
       <c r="F3">
-        <v>10.947516261406532</v>
+        <v>8.5445943083115807</v>
       </c>
       <c r="G3">
-        <v>10.947516261406532</v>
+        <v>8.5445943083115807</v>
       </c>
       <c r="H3">
-        <v>16.900877998258121</v>
+        <v>14.368492495037223</v>
       </c>
       <c r="I3">
-        <v>32.336463997363644</v>
+        <v>31.355679526712656</v>
       </c>
       <c r="J3">
-        <v>20.143351458230342</v>
+        <v>18.862446939560122</v>
       </c>
       <c r="K3">
-        <v>20.143351458230342</v>
+        <v>18.862446939560122</v>
       </c>
       <c r="L3">
-        <v>10.947516261406532</v>
+        <v>8.5445943083115807</v>
       </c>
       <c r="M3">
-        <v>10.947516261406532</v>
+        <v>8.5445943083115807</v>
       </c>
     </row>
     <row r="4">
@@ -1609,40 +1765,40 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8.7093660993809294</v>
+        <v>7.8482373341493439</v>
       </c>
       <c r="C4">
-        <v>12.797275773054327</v>
+        <v>5.8062440662539521</v>
       </c>
       <c r="D4">
-        <v>24.498034507920817</v>
+        <v>13.032664046010575</v>
       </c>
       <c r="E4">
-        <v>24.498034507920817</v>
+        <v>13.032664046010575</v>
       </c>
       <c r="F4">
-        <v>5.8631295655517217</v>
+        <v>3.6171331277609062</v>
       </c>
       <c r="G4">
-        <v>5.8631295655517217</v>
+        <v>3.6171331277609062</v>
       </c>
       <c r="H4">
-        <v>4.582225046881498</v>
+        <v>4.8431137160746669</v>
       </c>
       <c r="I4">
-        <v>15.56701111817277</v>
+        <v>6.277020612166436</v>
       </c>
       <c r="J4">
-        <v>25.492549961160936</v>
+        <v>12.436347087854765</v>
       </c>
       <c r="K4">
-        <v>25.492549961160936</v>
+        <v>12.436347087854765</v>
       </c>
       <c r="L4">
-        <v>7.1087258432784921</v>
+        <v>4.2467967579188528</v>
       </c>
       <c r="M4">
-        <v>6.9851469999764655</v>
+        <v>4.2467967579188528</v>
       </c>
     </row>
     <row r="5">
@@ -1650,40 +1806,40 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>28.90567991902644</v>
+        <v>32.55419814984819</v>
       </c>
       <c r="C5">
-        <v>26.787185462420254</v>
+        <v>29.857040855557905</v>
       </c>
       <c r="D5">
-        <v>6.4417924032357954</v>
+        <v>4.6999191833596292</v>
       </c>
       <c r="E5">
-        <v>5.9945546846189428</v>
+        <v>4.6469568219444763</v>
       </c>
       <c r="F5">
-        <v>2.9737385150138507</v>
+        <v>6.9851469999764602</v>
       </c>
       <c r="G5">
-        <v>4.0094469160213082</v>
+        <v>7.2499588070522343</v>
       </c>
       <c r="H5">
-        <v>9.3390297295388773</v>
+        <v>4.3566446186317584</v>
       </c>
       <c r="I5">
-        <v>13.105242096838724</v>
+        <v>14.007563809837674</v>
       </c>
       <c r="J5">
-        <v>11.738028544751243</v>
+        <v>3.3268209244482154</v>
       </c>
       <c r="K5">
-        <v>7.406884322356392</v>
+        <v>2.3460364537972072</v>
       </c>
       <c r="L5">
-        <v>6.3339061114641986</v>
+        <v>12.846314996586871</v>
       </c>
       <c r="M5">
-        <v>7.9267000918014121</v>
+        <v>14.562687820226135</v>
       </c>
     </row>
     <row r="6">
@@ -1691,40 +1847,40 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>14.650958422584715</v>
+        <v>15.270814208036155</v>
       </c>
       <c r="C6">
-        <v>11.94399328358795</v>
+        <v>20.353239334949667</v>
       </c>
       <c r="D6">
-        <v>0.58062440662539783</v>
+        <v>5.4708157772913228</v>
       </c>
       <c r="E6">
-        <v>0.59827852709711671</v>
+        <v>5.8140903420191758</v>
       </c>
       <c r="F6">
-        <v>3.0286624453703084</v>
+        <v>7.7305431976712322</v>
       </c>
       <c r="G6">
-        <v>3.8623292454236724</v>
+        <v>7.4323847185933296</v>
       </c>
       <c r="H6">
-        <v>4.4821850308750983</v>
+        <v>16.173135921035094</v>
       </c>
       <c r="I6">
-        <v>4.5429936680554608</v>
+        <v>12.397115709028716</v>
       </c>
       <c r="J6">
-        <v>11.222135913188819</v>
+        <v>7.1813038941066543</v>
       </c>
       <c r="K6">
-        <v>13.409285282740546</v>
+        <v>8.9133692692763411</v>
       </c>
       <c r="L6">
-        <v>9.8941537399273436</v>
+        <v>5.2746588831611154</v>
       </c>
       <c r="M6">
-        <v>10.170734960650929</v>
+        <v>4.1663724313254651</v>
       </c>
     </row>
     <row r="7">
@@ -1732,40 +1888,40 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>15.231582829210108</v>
+        <v>7.0793023091589582</v>
       </c>
       <c r="C7">
-        <v>19.86088553068285</v>
+        <v>12.414769829500415</v>
       </c>
       <c r="D7">
-        <v>9.8784611883969315</v>
+        <v>6.2064041302795649</v>
       </c>
       <c r="E7">
-        <v>5.8474370140212892</v>
+        <v>6.8674528634983538</v>
       </c>
       <c r="F7">
-        <v>8.8368680805655551</v>
+        <v>8.6799425652613973</v>
       </c>
       <c r="G7">
-        <v>9.5116477963734614</v>
+        <v>9.503801520608242</v>
       </c>
       <c r="H7">
-        <v>1.3730982589114014</v>
+        <v>6.137749217333992</v>
       </c>
       <c r="I7">
-        <v>12.718813015402235</v>
+        <v>7.8246985068537054</v>
       </c>
       <c r="J7">
-        <v>5.0392706102048566</v>
+        <v>5.2668126073959005</v>
       </c>
       <c r="K7">
-        <v>7.3774607882368697</v>
+        <v>6.9223767938547915</v>
       </c>
       <c r="L7">
-        <v>5.8866683928473442</v>
+        <v>8.7113276683222338</v>
       </c>
       <c r="M7">
-        <v>3.6661723512934552</v>
+        <v>9.1507191111738919</v>
       </c>
     </row>
     <row r="8">
@@ -1773,40 +1929,40 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>13.173897009784305</v>
+        <v>10.257043994068214</v>
       </c>
       <c r="C8">
-        <v>15.778860563833396</v>
+        <v>27.979819378731893</v>
       </c>
       <c r="D8">
-        <v>8.207204450407616</v>
+        <v>6.718373623959395</v>
       </c>
       <c r="E8">
-        <v>5.8062440662539512</v>
+        <v>5.5414322591781726</v>
       </c>
       <c r="F8">
-        <v>7.0636097576285408</v>
+        <v>14.360646219272025</v>
       </c>
       <c r="G8">
-        <v>8.8054829775047221</v>
+        <v>4.7254195795965463</v>
       </c>
       <c r="H8">
-        <v>12.428500812089522</v>
+        <v>2.3558442985037211</v>
       </c>
       <c r="I8">
-        <v>10.476739715494045</v>
+        <v>4.4115685489882281</v>
       </c>
       <c r="J8">
-        <v>8.6485574622005785</v>
+        <v>4.4900313066403177</v>
       </c>
       <c r="K8">
-        <v>7.461808252712852</v>
+        <v>5.1471569019764791</v>
       </c>
       <c r="L8">
-        <v>8.9447543723371883</v>
+        <v>1.6555641864588939</v>
       </c>
       <c r="M8">
-        <v>6.0494786149753903</v>
+        <v>2.8423133959466118</v>
       </c>
     </row>
     <row r="9">
@@ -1814,40 +1970,40 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>15.763168012302962</v>
+        <v>6.7556434338441207</v>
       </c>
       <c r="C9">
-        <v>14.444993683748017</v>
+        <v>20.957402568870684</v>
       </c>
       <c r="D9">
-        <v>1.8831061836499363</v>
+        <v>3.2738585630330475</v>
       </c>
       <c r="E9">
-        <v>5.3276212445762701</v>
+        <v>4.678341925005304</v>
       </c>
       <c r="F9">
-        <v>8.2464358292336453</v>
+        <v>2.0871093535453413</v>
       </c>
       <c r="G9">
-        <v>2.9600075324247412</v>
+        <v>10.639549937622128</v>
       </c>
       <c r="H9">
-        <v>10.506163249613566</v>
+        <v>3.6799033338825637</v>
       </c>
       <c r="I9">
-        <v>5.5335859834129808</v>
+        <v>3.8525214007171495</v>
       </c>
       <c r="J9">
-        <v>4.2369889132123397</v>
+        <v>5.1314643504460555</v>
       </c>
       <c r="K9">
-        <v>4.6606878045335849</v>
+        <v>6.7948748126701739</v>
       </c>
       <c r="L9">
-        <v>4.4351073762838622</v>
+        <v>10.357084010074651</v>
       </c>
       <c r="M9">
-        <v>6.2064041302795641</v>
+        <v>3.7975974703607016</v>
       </c>
     </row>
     <row r="10">
@@ -1855,40 +2011,40 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>14.494032907280566</v>
+        <v>6.4908316267683501</v>
       </c>
       <c r="C10">
-        <v>21.587066199028627</v>
+        <v>6.3240982667576766</v>
       </c>
       <c r="D10">
-        <v>6.6085257632464707</v>
+        <v>5.6512801198911005</v>
       </c>
       <c r="E10">
-        <v>6.9616081726808492</v>
+        <v>9.4626085728408853</v>
       </c>
       <c r="F10">
-        <v>6.6477571420725106</v>
+        <v>6.9537618969156343</v>
       </c>
       <c r="G10">
-        <v>6.8831454150287694</v>
+        <v>3.3346672002134272</v>
       </c>
       <c r="H10">
-        <v>5.7768205321344137</v>
+        <v>3.4837464397523692</v>
       </c>
       <c r="I10">
-        <v>8.4131691892443357</v>
+        <v>8.5132092052507264</v>
       </c>
       <c r="J10">
-        <v>7.0400709303329165</v>
+        <v>3.5092468359892979</v>
       </c>
       <c r="K10">
-        <v>3.9250994515453184</v>
+        <v>2.0812246467214228</v>
       </c>
       <c r="L10">
-        <v>13.034625614951871</v>
+        <v>4.8254595956029354</v>
       </c>
       <c r="M10">
-        <v>10.045194548407581</v>
+        <v>2.9501996877182308</v>
       </c>
     </row>
     <row r="11">
@@ -1896,40 +2052,40 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.3174132398057274</v>
+        <v>2.2930740923820458</v>
       </c>
       <c r="C11">
-        <v>5.0785019890309044</v>
+        <v>4.5429936680554599</v>
       </c>
       <c r="D11">
-        <v>7.9718161774513829</v>
+        <v>2.2146113347299679</v>
       </c>
       <c r="E11">
-        <v>6.6301030216008021</v>
+        <v>2.1498795596670037</v>
       </c>
       <c r="F11">
-        <v>6.0435939081514958</v>
+        <v>9.8647302058078168</v>
       </c>
       <c r="G11">
-        <v>3.6014405762304929</v>
+        <v>5.7375891533083863</v>
       </c>
       <c r="H11">
-        <v>1.2730582429050048</v>
+        <v>11.306483377664785</v>
       </c>
       <c r="I11">
-        <v>3.0698553931376487</v>
+        <v>5.925899771673385</v>
       </c>
       <c r="J11">
-        <v>7.863929885679779</v>
+        <v>3.7760202120063742</v>
       </c>
       <c r="K11">
-        <v>10.406123233607151</v>
+        <v>1.9537226655368103</v>
       </c>
       <c r="L11">
-        <v>7.0930332917480579</v>
+        <v>4.4351073762838427</v>
       </c>
       <c r="M11">
-        <v>4.8176133198377338</v>
+        <v>1.8752599078847156</v>
       </c>
     </row>
     <row r="12">
@@ -1937,40 +2093,40 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>24.684383557344496</v>
+        <v>6.8733375703222421</v>
       </c>
       <c r="C12">
-        <v>13.189589561314726</v>
+        <v>8.1307032616968389</v>
       </c>
       <c r="D12">
-        <v>11.339830049666915</v>
+        <v>8.1522805200511428</v>
       </c>
       <c r="E12">
-        <v>4.4507999278142591</v>
+        <v>5.029462765498363</v>
       </c>
       <c r="F12">
-        <v>7.9561236259209487</v>
+        <v>3.3425134759786124</v>
       </c>
       <c r="G12">
-        <v>4.9451153010223639</v>
+        <v>5.3766604681087982</v>
       </c>
       <c r="H12">
-        <v>1.6182943765741582</v>
+        <v>7.6108874922518162</v>
       </c>
       <c r="I12">
-        <v>5.5728173622390136</v>
+        <v>10.02165572111196</v>
       </c>
       <c r="J12">
-        <v>2.2440348688495044</v>
+        <v>4.2762202920383814</v>
       </c>
       <c r="K12">
-        <v>5.7454354290735958</v>
+        <v>5.0216164897331561</v>
       </c>
       <c r="L12">
-        <v>5.1393106262112669</v>
+        <v>7.4461157011824293</v>
       </c>
       <c r="M12">
-        <v>4.2467967579188448</v>
+        <v>5.0000392313788247</v>
       </c>
     </row>
     <row r="13">
@@ -1978,40 +2134,40 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10.349237734309414</v>
+        <v>11.031863725882509</v>
       </c>
       <c r="C13">
-        <v>8.5936335318440964</v>
+        <v>13.419093127447042</v>
       </c>
       <c r="D13">
-        <v>4.2369889132123433</v>
+        <v>5.337429089282776</v>
       </c>
       <c r="E13">
-        <v>5.8866683928473345</v>
+        <v>3.0227777385464001</v>
       </c>
       <c r="F13">
-        <v>2.7775816208836455</v>
+        <v>5.092232971620021</v>
       </c>
       <c r="G13">
-        <v>1.6261406523393642</v>
+        <v>7.053801912922034</v>
       </c>
       <c r="H13">
-        <v>3.2091267879700975</v>
+        <v>2.5814247267534443</v>
       </c>
       <c r="I13">
-        <v>3.4543229056328402</v>
+        <v>3.8368288491867353</v>
       </c>
       <c r="J13">
-        <v>3.1698954091440523</v>
+        <v>7.7462357492016345</v>
       </c>
       <c r="K13">
-        <v>5.6963962055410304</v>
+        <v>3.9329457273105208</v>
       </c>
       <c r="L13">
-        <v>1.7261806683457628</v>
+        <v>6.3084057152272699</v>
       </c>
       <c r="M13">
-        <v>5.2883898657502293</v>
+        <v>3.0620091173724364</v>
       </c>
     </row>
     <row r="14">
@@ -2019,40 +2175,40 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6.0337860634449862</v>
+        <v>17.185305494746924</v>
       </c>
       <c r="C14">
-        <v>10.160927115944411</v>
+        <v>3.6406719550565318</v>
       </c>
       <c r="D14">
-        <v>5.49435460458694</v>
+        <v>6.01024723614937</v>
       </c>
       <c r="E14">
-        <v>2.4323454872144903</v>
+        <v>1.5712167219829083</v>
       </c>
       <c r="F14">
-        <v>5.4845467598804136</v>
+        <v>6.3339061114641879</v>
       </c>
       <c r="G14">
-        <v>7.1577650668110477</v>
+        <v>5.4551232257608957</v>
       </c>
       <c r="H14">
-        <v>11.408484962612487</v>
+        <v>2.2146113347299821</v>
       </c>
       <c r="I14">
-        <v>11.339830049666922</v>
+        <v>1.3652519831462013</v>
       </c>
       <c r="J14">
-        <v>4.5920328915880191</v>
+        <v>10.05107925523151</v>
       </c>
       <c r="K14">
-        <v>4.8725372501942026</v>
+        <v>7.8541220409732393</v>
       </c>
       <c r="L14">
-        <v>6.318213559933775</v>
+        <v>8.3562836899465882</v>
       </c>
       <c r="M14">
-        <v>6.2868284568729447</v>
+        <v>8.2091660193489204</v>
       </c>
     </row>
     <row r="15">
@@ -2060,40 +2216,40 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6.7262198997245966</v>
+        <v>10.594433851972154</v>
       </c>
       <c r="C15">
-        <v>6.4516002479423253</v>
+        <v>14.172335600907028</v>
       </c>
       <c r="D15">
-        <v>8.5210554810159227</v>
+        <v>4.0584861395538692</v>
       </c>
       <c r="E15">
-        <v>6.9125689491482918</v>
+        <v>2.552001192633929</v>
       </c>
       <c r="F15">
-        <v>15.308084017920883</v>
+        <v>4.4017607042817088</v>
       </c>
       <c r="G15">
-        <v>2.1498795596669975</v>
+        <v>0.79247385228601286</v>
       </c>
       <c r="H15">
-        <v>7.1087258432784965</v>
+        <v>16.41637046975654</v>
       </c>
       <c r="I15">
-        <v>4.4900313066402964</v>
+        <v>11.612488132507927</v>
       </c>
       <c r="J15">
-        <v>5.4453153810543693</v>
+        <v>8.4524005680703596</v>
       </c>
       <c r="K15">
-        <v>5.0392706102048654</v>
+        <v>5.6807036540106175</v>
       </c>
       <c r="L15">
-        <v>4.4802234619337966</v>
+        <v>4.5979175984119101</v>
       </c>
       <c r="M15">
-        <v>2.834467120181416</v>
+        <v>4.7862282167768964</v>
       </c>
     </row>
     <row r="16">
@@ -2101,40 +2257,40 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>30.382741331826828</v>
+        <v>14.507763889869665</v>
       </c>
       <c r="C16">
-        <v>11.541871650621029</v>
+        <v>7.8933534197992934</v>
       </c>
       <c r="D16">
-        <v>2.8560443785357346</v>
+        <v>16.612527363886741</v>
       </c>
       <c r="E16">
-        <v>5.6120487410650393</v>
+        <v>7.4225768738868094</v>
       </c>
       <c r="F16">
-        <v>5.1177333678569532</v>
+        <v>9.1487575422325911</v>
       </c>
       <c r="G16">
-        <v>2.895275757361766</v>
+        <v>4.3723371701621749</v>
       </c>
       <c r="H16">
-        <v>2.4892309865122564</v>
+        <v>3.579863317876173</v>
       </c>
       <c r="I16">
-        <v>2.9443149808943199</v>
+        <v>8.0051628494535159</v>
       </c>
       <c r="J16">
-        <v>3.7191347127086121</v>
+        <v>5.0137702139679456</v>
       </c>
       <c r="K16">
-        <v>3.8839065037779843</v>
+        <v>5.3531216408131961</v>
       </c>
       <c r="L16">
-        <v>4.4115685489882228</v>
+        <v>2.5676937441643348</v>
       </c>
       <c r="M16">
-        <v>3.5877095936413732</v>
+        <v>3.6897111785890777</v>
       </c>
     </row>
     <row r="17">
@@ -2142,40 +2298,40 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>11.300598670840882</v>
+        <v>14.596034492228256</v>
       </c>
       <c r="C17">
-        <v>5.4923930356456232</v>
+        <v>6.1671727514535171</v>
       </c>
       <c r="D17">
-        <v>2.6069251229903685</v>
+        <v>11.19859708589318</v>
       </c>
       <c r="E17">
-        <v>4.794074492542113</v>
+        <v>6.6477571420725043</v>
       </c>
       <c r="F17">
-        <v>4.9510000078462832</v>
+        <v>7.7364279044951321</v>
       </c>
       <c r="G17">
-        <v>5.2883898657502044</v>
+        <v>3.2091267879700882</v>
       </c>
       <c r="H17">
-        <v>1.9792230617737328</v>
+        <v>7.2264199797566011</v>
       </c>
       <c r="I17">
-        <v>5.0314243344396505</v>
+        <v>5.2589663316306874</v>
       </c>
       <c r="J17">
-        <v>7.2185737039913942</v>
+        <v>2.1891109384930498</v>
       </c>
       <c r="K17">
-        <v>3.6955958854129864</v>
+        <v>1.4907923953895232</v>
       </c>
       <c r="L17">
-        <v>2.8030820171205826</v>
+        <v>2.6991188632315715</v>
       </c>
       <c r="M17">
-        <v>2.0576858194258136</v>
+        <v>1.600640256102444</v>
       </c>
     </row>
     <row r="18">
@@ -2183,40 +2339,40 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9.5724564335538211</v>
+        <v>17.136266271214378</v>
       </c>
       <c r="C18">
-        <v>5.2275812285698562</v>
+        <v>6.090671562742747</v>
       </c>
       <c r="D18">
-        <v>5.8552832897865015</v>
+        <v>6.76545127855064</v>
       </c>
       <c r="E18">
-        <v>2.6598874844055262</v>
+        <v>3.5484782148153418</v>
       </c>
       <c r="F18">
-        <v>3.1012404961984839</v>
+        <v>7.5893102338974767</v>
       </c>
       <c r="G18">
-        <v>2.5127698138078758</v>
+        <v>2.7775816208836446</v>
       </c>
       <c r="H18">
-        <v>8.4033613445378066</v>
+        <v>2.2852278166168478</v>
       </c>
       <c r="I18">
-        <v>3.2189346326766044</v>
+        <v>5.7983977904887407</v>
       </c>
       <c r="J18">
-        <v>4.4252995315773411</v>
+        <v>3.9309841583692338</v>
       </c>
       <c r="K18">
-        <v>6.8341061914962031</v>
+        <v>0.98274603959230666</v>
       </c>
       <c r="L18">
-        <v>6.7399508823137175</v>
+        <v>2.9031220331269596</v>
       </c>
       <c r="M18">
-        <v>2.8658522232422365</v>
+        <v>2.363690574268924</v>
       </c>
     </row>
     <row r="19">
@@ -2224,40 +2380,40 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>12.132303901952953</v>
+        <v>14.876538850834448</v>
       </c>
       <c r="C19">
-        <v>8.0424326593382389</v>
+        <v>8.5445943083115719</v>
       </c>
       <c r="D19">
-        <v>7.9953550047469939</v>
+        <v>5.2746588831611172</v>
       </c>
       <c r="E19">
-        <v>4.3625293254556832</v>
+        <v>5.7356275843670792</v>
       </c>
       <c r="F19">
-        <v>14.337107391976408</v>
+        <v>7.9267000918014183</v>
       </c>
       <c r="G19">
-        <v>14.523456441400116</v>
+        <v>4.6606878045335849</v>
       </c>
       <c r="H19">
-        <v>4.0192547607278293</v>
+        <v>4.66853408029879</v>
       </c>
       <c r="I19">
-        <v>6.2299429575752008</v>
+        <v>4.1271410524994341</v>
       </c>
       <c r="J19">
-        <v>6.4516002479423245</v>
+        <v>5.4551232257608957</v>
       </c>
       <c r="K19">
-        <v>8.4131691892443321</v>
+        <v>3.3817448548046651</v>
       </c>
       <c r="L19">
-        <v>5.965131150499416</v>
+        <v>1.5869092735133248</v>
       </c>
       <c r="M19">
-        <v>3.6799033338825717</v>
+        <v>3.2640507183265433</v>
       </c>
     </row>
     <row r="20">
@@ -2265,40 +2421,40 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8.8584453389198945</v>
+        <v>5.5335859834129799</v>
       </c>
       <c r="C20">
-        <v>7.30488273740868</v>
+        <v>4.1192947767342325</v>
       </c>
       <c r="D20">
-        <v>5.95532330579291</v>
+        <v>5.0392706102048548</v>
       </c>
       <c r="E20">
-        <v>3.4307840783372208</v>
+        <v>2.4107682288601762</v>
       </c>
       <c r="F20">
-        <v>10.090310634057548</v>
+        <v>7.0714560333937406</v>
       </c>
       <c r="G20">
-        <v>4.2467967579188413</v>
+        <v>3.1012404961984652</v>
       </c>
       <c r="H20">
-        <v>6.985146999976461</v>
+        <v>1.7261806683457652</v>
       </c>
       <c r="I20">
-        <v>3.0227777385464005</v>
+        <v>1.861528925295612</v>
       </c>
       <c r="J20">
-        <v>4.2154116548580189</v>
+        <v>2.5127698138078771</v>
       </c>
       <c r="K20">
-        <v>4.2546430336840722</v>
+        <v>2.9815847907790611</v>
       </c>
       <c r="L20">
-        <v>3.8937143484844876</v>
+        <v>3.797597470360687</v>
       </c>
       <c r="M20">
-        <v>3.8466366938932413</v>
+        <v>1.9635305102433014</v>
       </c>
     </row>
     <row r="21">
@@ -2306,40 +2462,40 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>12.208805090663724</v>
+        <v>28.803678334078761</v>
       </c>
       <c r="C21">
-        <v>3.6877496096477813</v>
+        <v>29.700115340253749</v>
       </c>
       <c r="D21">
-        <v>9.2586054029454985</v>
+        <v>9.9667317907555244</v>
       </c>
       <c r="E21">
-        <v>2.1361485770778965</v>
+        <v>6.3947147486445628</v>
       </c>
       <c r="F21">
-        <v>21.655721111974234</v>
+        <v>6.9851469999764726</v>
       </c>
       <c r="G21">
-        <v>2.6755800359359494</v>
+        <v>2.6598874844055302</v>
       </c>
       <c r="H21">
-        <v>1.6889108584610193</v>
+        <v>2.244034868849492</v>
       </c>
       <c r="I21">
-        <v>3.8937143484844929</v>
+        <v>9.2684132476519991</v>
       </c>
       <c r="J21">
-        <v>5.6120487410650597</v>
+        <v>5.7591664116627017</v>
       </c>
       <c r="K21">
-        <v>3.1404718750245122</v>
+        <v>2.0969171982518535</v>
       </c>
       <c r="L21">
-        <v>2.0714168020149324</v>
+        <v>3.4543229056328446</v>
       </c>
       <c r="M21">
-        <v>2.2440348688494862</v>
+        <v>2.1361485770778827</v>
       </c>
     </row>
     <row r="22">
@@ -2347,40 +2503,40 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>12.467732190915576</v>
+        <v>23.980180307417086</v>
       </c>
       <c r="C22">
-        <v>6.1514801999231077</v>
+        <v>15.151158502616751</v>
       </c>
       <c r="D22">
-        <v>4.7862282167769115</v>
+        <v>11.267251998838747</v>
       </c>
       <c r="E22">
-        <v>2.6853878806424523</v>
+        <v>6.2299429575751892</v>
       </c>
       <c r="F22">
-        <v>4.0584861395538692</v>
+        <v>6.9910317068003796</v>
       </c>
       <c r="G22">
-        <v>4.5135701339359278</v>
+        <v>4.6999191833596363</v>
       </c>
       <c r="H22">
-        <v>4.2369889132123468</v>
+        <v>3.1953958053809663</v>
       </c>
       <c r="I22">
-        <v>4.8823450949007094</v>
+        <v>5.6493185509497774</v>
       </c>
       <c r="J22">
-        <v>4.7862282167769115</v>
+        <v>5.0608478685591933</v>
       </c>
       <c r="K22">
-        <v>4.8666525433702903</v>
+        <v>1.3652519831461953</v>
       </c>
       <c r="L22">
-        <v>6.2554433538121126</v>
+        <v>3.6583260755282461</v>
       </c>
       <c r="M22">
-        <v>6.4260998517053745</v>
+        <v>2.5598474683991239</v>
       </c>
     </row>
     <row r="23">
@@ -2388,40 +2544,40 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>18.417170789884572</v>
+        <v>8.2405511224097499</v>
       </c>
       <c r="C23">
-        <v>6.6614881246616315</v>
+        <v>6.002400960384155</v>
       </c>
       <c r="D23">
-        <v>7.5638098376605534</v>
+        <v>6.0024009603841542</v>
       </c>
       <c r="E23">
-        <v>1.9223375624759709</v>
+        <v>3.4052836821002952</v>
       </c>
       <c r="F23">
-        <v>7.2891901858782937</v>
+        <v>7.6815039741386846</v>
       </c>
       <c r="G23">
-        <v>2.9207761535986903</v>
+        <v>2.6853878806424434</v>
       </c>
       <c r="H23">
-        <v>4.872537250194191</v>
+        <v>4.5135701339359304</v>
       </c>
       <c r="I23">
-        <v>6.2946747326381418</v>
+        <v>3.2189346326766</v>
       </c>
       <c r="J23">
-        <v>3.1875495296157652</v>
+        <v>2.989431066544264</v>
       </c>
       <c r="K23">
-        <v>3.4837464397523714</v>
+        <v>2.4813847107470317</v>
       </c>
       <c r="L23">
-        <v>1.296597070200624</v>
+        <v>3.5092468359892997</v>
       </c>
       <c r="M23">
-        <v>2.6285023813447044</v>
+        <v>4.8254595956029425</v>
       </c>
     </row>
     <row r="24">
@@ -2429,40 +2585,40 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>17.459925146529216</v>
+        <v>16.194713179389407</v>
       </c>
       <c r="C24">
-        <v>6.5045626093574755</v>
+        <v>7.2362278244631204</v>
       </c>
       <c r="D24">
-        <v>5.3354675203414761</v>
+        <v>7.3284215647043247</v>
       </c>
       <c r="E24">
-        <v>3.0522012726659273</v>
+        <v>6.1612880446296119</v>
       </c>
       <c r="F24">
-        <v>7.3539219609412534</v>
+        <v>4.9608078525527946</v>
       </c>
       <c r="G24">
-        <v>2.8658522232422343</v>
+        <v>9.2605669718867958</v>
       </c>
       <c r="H24">
-        <v>3.2169730637352991</v>
+        <v>5.627741292595478</v>
       </c>
       <c r="I24">
-        <v>2.5814247267534487</v>
+        <v>4.5586862195858719</v>
       </c>
       <c r="J24">
-        <v>6.4260998517053807</v>
+        <v>5.1098870920917303</v>
       </c>
       <c r="K24">
-        <v>5.9239382027320824</v>
+        <v>2.1361485770778788</v>
       </c>
       <c r="L24">
-        <v>2.6069251229903609</v>
+        <v>4.0506398637886587</v>
       </c>
       <c r="M24">
-        <v>2.8266208444161953</v>
+        <v>4.4507999278142565</v>
       </c>
     </row>
     <row r="25">
@@ -2470,40 +2626,40 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>12.193112539133303</v>
+        <v>9.1879889210586185</v>
       </c>
       <c r="C25">
-        <v>4.3723371701621927</v>
+        <v>6.8576450187918363</v>
       </c>
       <c r="D25">
-        <v>18.73102182049292</v>
+        <v>8.9153308382176384</v>
       </c>
       <c r="E25">
-        <v>2.3558442985037216</v>
+        <v>3.3660523032742589</v>
       </c>
       <c r="F25">
-        <v>14.760806283297626</v>
+        <v>4.4351073762838364</v>
       </c>
       <c r="G25">
-        <v>8.052240504044752</v>
+        <v>4.9039223532550222</v>
       </c>
       <c r="H25">
-        <v>3.4994389912827852</v>
+        <v>4.1761802760319791</v>
       </c>
       <c r="I25">
-        <v>1.3260206043201617</v>
+        <v>2.0792630777801371</v>
       </c>
       <c r="J25">
-        <v>3.3346672002134201</v>
+        <v>3.1090867719636908</v>
       </c>
       <c r="K25">
-        <v>2.2283423173190915</v>
+        <v>3.0620091173724444</v>
       </c>
       <c r="L25">
-        <v>7.2891901858782688</v>
+        <v>2.5206160895730823</v>
       </c>
       <c r="M25">
-        <v>4.0879096736733986</v>
+        <v>3.3660523032742447</v>
       </c>
     </row>
     <row r="26">
@@ -2511,40 +2667,40 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>11.887107784290196</v>
+        <v>6.6712959693681402</v>
       </c>
       <c r="C26">
-        <v>3.9152916068388257</v>
+        <v>15.082503589671189</v>
       </c>
       <c r="D26">
-        <v>4.7391505621856602</v>
+        <v>5.9317844784972857</v>
       </c>
       <c r="E26">
-        <v>4.0427935880234491</v>
+        <v>3.4837464397523727</v>
       </c>
       <c r="F26">
-        <v>7.7776208522624684</v>
+        <v>4.4017607042817009</v>
       </c>
       <c r="G26">
-        <v>4.6606878045335698</v>
+        <v>2.3068050749711677</v>
       </c>
       <c r="H26">
-        <v>5.8631295655517066</v>
+        <v>2.4009603841536578</v>
       </c>
       <c r="I26">
-        <v>2.659887484405528</v>
+        <v>6.4437539721771122</v>
       </c>
       <c r="J26">
-        <v>2.2852278166168407</v>
+        <v>5.5630095175325023</v>
       </c>
       <c r="K26">
-        <v>2.9050836020682769</v>
+        <v>1.9615689413020077</v>
       </c>
       <c r="L26">
-        <v>6.3084057152272699</v>
+        <v>3.8446751249519275</v>
       </c>
       <c r="M26">
-        <v>4.8352674403094618</v>
+        <v>2.8168129997096965</v>
       </c>
     </row>
     <row r="27">
@@ -2552,40 +2708,40 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>9.6999584147384503</v>
+        <v>18.705521424255981</v>
       </c>
       <c r="C27">
-        <v>3.2660122872678503</v>
+        <v>7.1479572221045249</v>
       </c>
       <c r="D27">
-        <v>2.8325055512401018</v>
+        <v>4.6783419250052942</v>
       </c>
       <c r="E27">
-        <v>3.4602076124567471</v>
+        <v>2.9992389112507785</v>
       </c>
       <c r="F27">
-        <v>3.6171331277609036</v>
+        <v>6.2162119749860647</v>
       </c>
       <c r="G27">
-        <v>8.9369080965719725</v>
+        <v>2.7854278966488706</v>
       </c>
       <c r="H27">
-        <v>2.1989187831995567</v>
+        <v>3.3915526995111884</v>
       </c>
       <c r="I27">
-        <v>4.003562209197403</v>
+        <v>5.3374290892827627</v>
       </c>
       <c r="J27">
-        <v>3.5779017489348655</v>
+        <v>6.5987179185399558</v>
       </c>
       <c r="K27">
-        <v>2.4637305902753135</v>
+        <v>4.4802234619337931</v>
       </c>
       <c r="L27">
-        <v>7.9953550047470054</v>
+        <v>4.2840665678035945</v>
       </c>
       <c r="M27">
-        <v>3.2640507183265455</v>
+        <v>1.5378700499807776</v>
       </c>
     </row>
     <row r="28">
@@ -2593,40 +2749,40 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>18.126858586571888</v>
+        <v>5.9160919269668746</v>
       </c>
       <c r="C28">
-        <v>10.12365730605968</v>
+        <v>10.835706831752303</v>
       </c>
       <c r="D28">
-        <v>15.082503589671164</v>
+        <v>3.2640507183265504</v>
       </c>
       <c r="E28">
-        <v>5.492393035645625</v>
+        <v>7.4618082527128378</v>
       </c>
       <c r="F28">
-        <v>6.5045626093574809</v>
+        <v>12.036187023829131</v>
       </c>
       <c r="G28">
-        <v>4.0898712426146995</v>
+        <v>4.1761802760319826</v>
       </c>
       <c r="H28">
-        <v>3.5092468359892979</v>
+        <v>2.2048034900234601</v>
       </c>
       <c r="I28">
-        <v>3.2189346326766062</v>
+        <v>4.4429536520490638</v>
       </c>
       <c r="J28">
-        <v>4.333105791336151</v>
+        <v>4.0094469160213064</v>
       </c>
       <c r="K28">
-        <v>3.5700554731696639</v>
+        <v>2.0871093535453369</v>
       </c>
       <c r="L28">
-        <v>6.1907115787491547</v>
+        <v>4.7391505621856416</v>
       </c>
       <c r="M28">
-        <v>2.4892309865122439</v>
+        <v>3.5386703701088309</v>
       </c>
     </row>
     <row r="29">
@@ -2634,40 +2790,40 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>18.65255906284083</v>
+        <v>12.15388116030727</v>
       </c>
       <c r="C29">
-        <v>5.9239382027320895</v>
+        <v>3.3758601479807648</v>
       </c>
       <c r="D29">
-        <v>7.9659314706274609</v>
+        <v>10.829822124928407</v>
       </c>
       <c r="E29">
-        <v>1.8850677525912398</v>
+        <v>8.4033613445378066</v>
       </c>
       <c r="F29">
-        <v>6.0494786149754018</v>
+        <v>11.290790826134376</v>
       </c>
       <c r="G29">
-        <v>3.7348272642390219</v>
+        <v>5.3276212445762701</v>
       </c>
       <c r="H29">
-        <v>4.1506798797950655</v>
+        <v>1.547677894687296</v>
       </c>
       <c r="I29">
-        <v>4.2683740162731807</v>
+        <v>3.9152916068388044</v>
       </c>
       <c r="J29">
-        <v>2.7461965178228152</v>
+        <v>7.8482373341493599</v>
       </c>
       <c r="K29">
-        <v>1.8124897017630515</v>
+        <v>4.1604877245015706</v>
       </c>
       <c r="L29">
-        <v>3.4935542844588845</v>
+        <v>5.5100471561173485</v>
       </c>
       <c r="M29">
-        <v>2.3323054712080911</v>
+        <v>1.4515610165634834</v>
       </c>
     </row>
     <row r="30">
@@ -2675,40 +2831,40 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>8.5544021530180778</v>
+        <v>18.731021820492902</v>
       </c>
       <c r="C30">
-        <v>3.6014405762304915</v>
+        <v>1.9929540443628464</v>
       </c>
       <c r="D30">
-        <v>13.730982589114102</v>
+        <v>4.3154516708644266</v>
       </c>
       <c r="E30">
-        <v>3.4837464397523701</v>
+        <v>2.8736984990074546</v>
       </c>
       <c r="F30">
-        <v>5.6493185509497899</v>
+        <v>4.5528015127619712</v>
       </c>
       <c r="G30">
-        <v>5.4610079325847911</v>
+        <v>4.3566446186317647</v>
       </c>
       <c r="H30">
-        <v>3.1090867719636859</v>
+        <v>2.2067650589647632</v>
       </c>
       <c r="I30">
-        <v>9.3370681605975747</v>
+        <v>7.181303894106672</v>
       </c>
       <c r="J30">
-        <v>4.5037622892294102</v>
+        <v>4.7254195795965552</v>
       </c>
       <c r="K30">
-        <v>2.630463950286007</v>
+        <v>4.5429936680554599</v>
       </c>
       <c r="L30">
-        <v>3.4837464397523714</v>
+        <v>3.734827264239033</v>
       </c>
       <c r="M30">
-        <v>0.81601267958162893</v>
+        <v>4.0329857433169334</v>
       </c>
     </row>
     <row r="31">
@@ -2716,40 +2872,40 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>6.3574449387598087</v>
+        <v>18.448555892945414</v>
       </c>
       <c r="C31">
-        <v>3.383706423745982</v>
+        <v>19.615689413020114</v>
       </c>
       <c r="D31">
-        <v>5.2275812285698651</v>
+        <v>3.8623292454236622</v>
       </c>
       <c r="E31">
-        <v>5.1961961255090312</v>
+        <v>1.6889108584610377</v>
       </c>
       <c r="F31">
-        <v>2.6461565018164084</v>
+        <v>11.306483377664794</v>
       </c>
       <c r="G31">
-        <v>4.3958759974578037</v>
+        <v>8.8290218048003357</v>
       </c>
       <c r="H31">
-        <v>3.2169730637353036</v>
+        <v>4.0722171221429813</v>
       </c>
       <c r="I31">
-        <v>2.8325055512401036</v>
+        <v>7.4166921670629069</v>
       </c>
       <c r="J31">
-        <v>6.2691743364012247</v>
+        <v>1.5378700499807811</v>
       </c>
       <c r="K31">
-        <v>4.6606878045335822</v>
+        <v>1.9301838382411738</v>
       </c>
       <c r="L31">
-        <v>3.1698954091440523</v>
+        <v>5.0000392313788282</v>
       </c>
       <c r="M31">
-        <v>3.5327856632849075</v>
+        <v>2.9129298778334838</v>
       </c>
     </row>
     <row r="32">
@@ -2757,40 +2913,40 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>14.154681480435325</v>
+        <v>10.162888684885727</v>
       </c>
       <c r="C32">
-        <v>11.896915628996704</v>
+        <v>11.496755564971105</v>
       </c>
       <c r="D32">
-        <v>9.7999984307448464</v>
+        <v>7.4323847185933154</v>
       </c>
       <c r="E32">
-        <v>1.8438748048238947</v>
+        <v>1.1847876405464142</v>
       </c>
       <c r="F32">
-        <v>14.703920783999877</v>
+        <v>4.9921929556136231</v>
       </c>
       <c r="G32">
-        <v>3.4915927155175774</v>
+        <v>6.0043625293254586</v>
       </c>
       <c r="H32">
-        <v>3.9329457273105266</v>
+        <v>1.9713767860085207</v>
       </c>
       <c r="I32">
-        <v>5.2256196596285616</v>
+        <v>7.3382294094108289</v>
       </c>
       <c r="J32">
-        <v>2.0086465958932571</v>
+        <v>5.8082056351952618</v>
       </c>
       <c r="K32">
-        <v>2.1596874043735106</v>
+        <v>2.8560443785357168</v>
       </c>
       <c r="L32">
-        <v>6.1514801999231103</v>
+        <v>5.1569647466829682</v>
       </c>
       <c r="M32">
-        <v>3.1385103060832176</v>
+        <v>1.9321454071824806</v>
       </c>
     </row>
   </sheetData>
@@ -2807,10 +2963,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="89" t="s">
         <v>14</v>
       </c>
     </row>
